--- a/noi/NOI.xlsx
+++ b/noi/NOI.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="收入" sheetId="1" r:id="rId1"/>
     <sheet name="费用" sheetId="2" r:id="rId2"/>
     <sheet name="欠费" sheetId="3" r:id="rId3"/>
     <sheet name="noi" sheetId="4" r:id="rId4"/>
+    <sheet name="chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>收入</t>
   </si>
@@ -188,6 +189,18 @@
   </si>
   <si>
     <t>预测收益率（按ROE）</t>
+  </si>
+  <si>
+    <t>方案实际（万元）</t>
+  </si>
+  <si>
+    <t>方案一</t>
+  </si>
+  <si>
+    <t>方案二</t>
+  </si>
+  <si>
+    <t>方案三</t>
   </si>
 </sst>
 </file>
@@ -197,17 +210,30 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -224,15 +250,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,7 +286,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,51 +301,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,16 +322,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -359,6 +345,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
@@ -366,16 +360,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,187 +421,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,21 +741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -751,17 +755,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,15 +789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -819,263 +803,307 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="5" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="13" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="13" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1404,278 +1432,278 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" ht="20.25" spans="1:13">
-      <c r="A1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="30" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" ht="20.25" spans="1:13">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="L2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="30"/>
+      <c r="M2" s="33"/>
     </row>
     <row r="3" ht="20.25" spans="1:13">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:13">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="28">
         <v>138.82</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="28">
         <v>208.84</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="28">
         <f>B4-C4</f>
         <v>-70.02</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="38">
         <f>D4/C4</f>
         <v>-0.335280597586669</v>
       </c>
-      <c r="F4" s="25">
+      <c r="F4" s="28">
         <v>220.41</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="28">
         <v>290.43</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="28">
         <f>F4-G4</f>
         <v>-70.02</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="38">
         <f>H4/G4</f>
         <v>-0.24109079640533</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="28">
         <v>759.57</v>
       </c>
-      <c r="K4" s="25">
+      <c r="K4" s="28">
         <v>1015.45</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="28">
         <f>J4-K4</f>
         <v>-255.88</v>
       </c>
-      <c r="M4" s="37">
+      <c r="M4" s="40">
         <f>L4/K4</f>
         <v>-0.251986803880053</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:13">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="28">
         <v>234.35</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="28">
         <v>189.02</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="28">
         <f t="shared" ref="D5:D7" si="0">B5-C5</f>
         <v>45.33</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="38">
         <f t="shared" ref="E5:E7" si="1">D5/C5</f>
         <v>0.239815892498148</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="28">
         <v>352.83</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="28">
         <v>307.5</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="28">
         <f t="shared" ref="H5:H7" si="2">F5-G5</f>
         <v>45.33</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="38">
         <f t="shared" ref="I5:I7" si="3">H5/G5</f>
         <v>0.147414634146341</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="28">
         <v>716.82</v>
       </c>
-      <c r="K5" s="25">
+      <c r="K5" s="28">
         <v>704.88</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="28">
         <f t="shared" ref="L5:L6" si="4">J5-K5</f>
         <v>11.9400000000001</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="40">
         <f t="shared" ref="M5:M7" si="5">L5/K5</f>
         <v>0.0169390534559075</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:13">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="28">
         <v>37.54</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="28">
         <v>55.05</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="28">
         <f t="shared" si="0"/>
         <v>-17.51</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="38">
         <f t="shared" si="1"/>
         <v>-0.318074477747502</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="28">
         <v>66.27</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="28">
         <v>56.55</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="28">
         <f t="shared" si="2"/>
         <v>9.72</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="38">
         <f t="shared" si="3"/>
         <v>0.171883289124668</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="28">
         <v>150</v>
       </c>
-      <c r="K6" s="25">
+      <c r="K6" s="28">
         <v>106.55</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="28">
         <f t="shared" si="4"/>
         <v>43.45</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="40">
         <f t="shared" si="5"/>
         <v>0.407789770061004</v>
       </c>
     </row>
     <row r="7" ht="20.25" spans="1:13">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="28">
         <f t="shared" ref="B7:G7" si="6">SUM(B4:B6)</f>
         <v>410.71</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="28">
         <f t="shared" si="6"/>
         <v>452.91</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="28">
         <f t="shared" si="0"/>
         <v>-42.2</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="38">
         <f t="shared" si="1"/>
         <v>-0.0931752445298184</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="28">
         <f t="shared" si="6"/>
         <v>639.51</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="28">
         <f t="shared" si="6"/>
         <v>654.48</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="28">
         <f t="shared" si="2"/>
         <v>-14.97</v>
       </c>
-      <c r="I7" s="35">
+      <c r="I7" s="38">
         <f t="shared" si="3"/>
         <v>-0.0228731206453979</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="28">
         <f t="shared" ref="J7:L7" si="7">SUM(J4:J6)</f>
         <v>1626.39</v>
       </c>
-      <c r="K7" s="25">
+      <c r="K7" s="28">
         <f t="shared" si="7"/>
         <v>1826.88</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="28">
         <f t="shared" si="7"/>
         <v>-200.49</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="40">
         <f t="shared" si="5"/>
         <v>-0.109744482396216</v>
       </c>
@@ -1706,8 +1734,8 @@
   <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1722,825 +1750,825 @@
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:13">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="12"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" ht="20.25" spans="1:13">
-      <c r="A2" s="13"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="12"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" ht="20.25" spans="1:13">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15" t="s">
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:13">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>56.06</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <f>B4-C4</f>
         <v>56.06</v>
       </c>
-      <c r="E4" s="18" t="e">
+      <c r="E4" s="21" t="e">
         <f>D4/C4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="20">
         <v>74.39</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17">
+      <c r="G4" s="20"/>
+      <c r="H4" s="20">
         <f>F4-G4</f>
         <v>74.39</v>
       </c>
-      <c r="I4" s="17" t="e">
+      <c r="I4" s="20" t="e">
         <f>H4/G4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="20">
         <v>150</v>
       </c>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" ht="20.25" spans="1:13">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17">
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
         <f t="shared" ref="D5:D19" si="0">B5-C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="18" t="e">
+      <c r="E5" s="21" t="e">
         <f t="shared" ref="E5:E19" si="1">D5/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="17">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17">
+      <c r="F5" s="20">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20">
         <f t="shared" ref="H5:H19" si="2">F5-G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="17" t="e">
+      <c r="I5" s="20" t="e">
         <f t="shared" ref="I5:I19" si="3">H5/G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="20">
         <v>107.76</v>
       </c>
-      <c r="K5" s="21"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
     </row>
     <row r="6" ht="20.25" spans="1:13">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17">
+      <c r="B6" s="20">
+        <v>0</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="18" t="e">
+      <c r="E6" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="17">
-        <v>0</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17">
+      <c r="F6" s="20">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I6" s="17" t="e">
+      <c r="I6" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
     </row>
     <row r="7" ht="20.25" spans="1:13">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17">
+      <c r="B7" s="20">
+        <v>0</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="18" t="e">
+      <c r="E7" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="17">
-        <v>0</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17">
+      <c r="F7" s="20">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I7" s="17" t="e">
+      <c r="I7" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17">
+      <c r="J7" s="20"/>
+      <c r="K7" s="20">
         <v>106.09</v>
       </c>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
     </row>
     <row r="8" ht="20.25" spans="1:13">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17">
+      <c r="B8" s="20">
+        <v>0</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="18" t="e">
+      <c r="E8" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="17">
-        <v>0</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17">
+      <c r="F8" s="20">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I8" s="17" t="e">
+      <c r="I8" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="20">
         <v>10</v>
       </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
     </row>
     <row r="9" ht="20.25" spans="1:13">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17">
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="18" t="e">
+      <c r="E9" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="17">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17">
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I9" s="17" t="e">
+      <c r="I9" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="17">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
     </row>
     <row r="10" ht="20.25" spans="1:13">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17">
+      <c r="B10" s="20">
+        <v>0</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="18" t="e">
+      <c r="E10" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="17">
-        <v>0</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17">
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I10" s="17" t="e">
+      <c r="I10" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="20">
         <v>10</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
     </row>
     <row r="11" ht="20.25" spans="1:13">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17">
+      <c r="B11" s="20">
+        <v>0</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="18" t="e">
+      <c r="E11" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="17">
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17">
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I11" s="17" t="e">
+      <c r="I11" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="12" ht="20.25" spans="1:13">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17">
+      <c r="B12" s="20">
+        <v>0</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="18" t="e">
+      <c r="E12" s="21" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="17">
-        <v>0</v>
-      </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17">
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I12" s="17" t="e">
+      <c r="I12" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
     </row>
     <row r="13" ht="20.25" spans="1:13">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="20">
         <v>41.49</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="20">
         <v>110.83</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>-69.34</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="20">
         <f t="shared" si="1"/>
         <v>-0.625642876477488</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="20">
         <v>96.05</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="20">
         <v>110.83</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="20">
         <f t="shared" si="2"/>
         <v>-14.78</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="20">
         <f t="shared" si="3"/>
         <v>-0.133357394207345</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="20">
         <v>250</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="20">
         <v>224.6</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
     </row>
     <row r="14" ht="20.25" spans="1:13">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="23">
         <v>113.43</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="23">
         <v>143.38</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="23">
         <f t="shared" si="0"/>
         <v>-29.95</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="23">
         <f t="shared" si="1"/>
         <v>-0.208885479146324</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="23">
         <v>193.94</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="20">
         <v>223.88</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="20">
         <f t="shared" si="2"/>
         <v>-29.94</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="20">
         <f t="shared" si="3"/>
         <v>-0.133732356619618</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="20">
         <v>500</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <v>441.92</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" ht="20.25" spans="1:13">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="20">
         <v>3.68</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <v>10.61</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>-6.93</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="20">
         <f t="shared" si="1"/>
         <v>-0.65315739868049</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="20">
         <v>3.68</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G15" s="20">
         <v>10.61</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="20">
         <f t="shared" si="2"/>
         <v>-6.93</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="20">
         <f t="shared" si="3"/>
         <v>-0.65315739868049</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="20">
         <v>18</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="20">
         <v>23.38</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
     </row>
     <row r="16" ht="20.25" spans="1:13">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17">
+      <c r="B16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="17" t="e">
+      <c r="E16" s="20" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17">
+      <c r="F16" s="24"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I16" s="17" t="e">
+      <c r="I16" s="20" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
     </row>
     <row r="17" ht="20.25" spans="1:13">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="20">
         <v>1.667591</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="20">
         <v>2.06</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>-0.392409</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="20">
         <f t="shared" si="1"/>
         <v>-0.190489805825243</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="20">
         <v>1.67</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="20">
         <v>2.06</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="20">
         <f t="shared" si="2"/>
         <v>-0.39</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="20">
         <f t="shared" si="3"/>
         <v>-0.189320388349515</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="20">
         <v>5.5</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="20">
         <v>6.18</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
     </row>
     <row r="18" ht="20.25" spans="1:13">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="24">
         <v>5.746</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="20">
         <v>2.32</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>3.426</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
         <v>1.47672413793103</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="24">
         <v>9.739</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G18" s="20">
         <v>5.47</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="20">
         <f t="shared" si="2"/>
         <v>4.269</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="20">
         <f t="shared" si="3"/>
         <v>0.780438756855576</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="20">
         <v>18</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="20">
         <v>10.21</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
     </row>
     <row r="19" ht="20.25" spans="1:13">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="26">
         <f>SUM(B4:B18)-B7</f>
         <v>222.073591</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="26">
         <f>SUM(C4:C18)-C7</f>
         <v>269.2</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>-47.126409</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="20">
         <f t="shared" si="1"/>
         <v>-0.175060954680535</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="26">
         <f t="shared" ref="F19:G19" si="4">SUM(F4:F18)-F7</f>
         <v>379.469</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="26">
         <f t="shared" si="4"/>
         <v>352.85</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="20">
         <f t="shared" si="2"/>
         <v>26.619</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="20">
         <f t="shared" si="3"/>
         <v>0.075439988663738</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="26">
         <f>SUM(J4:J18)</f>
         <v>1069.26</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="26">
         <f>SUM(K4:K18)</f>
         <v>812.38</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
     </row>
     <row r="20" ht="18" spans="1:13">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
     <row r="21" ht="18" spans="1:13">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
     <row r="22" ht="18" spans="1:13">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="25" t="e">
+      <c r="B22" s="28" t="e">
         <f>#REF!-B19</f>
         <v>#REF!</v>
       </c>
-      <c r="C22" s="25" t="e">
+      <c r="C22" s="28" t="e">
         <f>#REF!-C19</f>
         <v>#REF!</v>
       </c>
-      <c r="D22" s="25" t="e">
+      <c r="D22" s="28" t="e">
         <f>#REF!-D19</f>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="26" t="e">
+      <c r="E22" s="29" t="e">
         <f>#REF!-E19</f>
         <v>#REF!</v>
       </c>
-      <c r="F22" s="25" t="e">
+      <c r="F22" s="28" t="e">
         <f>#REF!-F19</f>
         <v>#REF!</v>
       </c>
-      <c r="G22" s="25" t="e">
+      <c r="G22" s="28" t="e">
         <f>#REF!-G19</f>
         <v>#REF!</v>
       </c>
-      <c r="H22" s="25" t="e">
+      <c r="H22" s="28" t="e">
         <f>#REF!-H19</f>
         <v>#REF!</v>
       </c>
-      <c r="I22" s="26" t="e">
+      <c r="I22" s="29" t="e">
         <f>#REF!-I19</f>
         <v>#REF!</v>
       </c>
-      <c r="J22" s="25" t="e">
+      <c r="J22" s="28" t="e">
         <f>#REF!-J19</f>
         <v>#REF!</v>
       </c>
-      <c r="K22" s="25" t="e">
+      <c r="K22" s="28" t="e">
         <f>#REF!-K19</f>
         <v>#REF!</v>
       </c>
-      <c r="L22" s="25" t="e">
+      <c r="L22" s="28" t="e">
         <f>#REF!-L19</f>
         <v>#REF!</v>
       </c>
-      <c r="M22" s="26" t="e">
+      <c r="M22" s="29" t="e">
         <f>#REF!-M19</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="23" ht="18.75" spans="1:13">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
     <row r="24" ht="18.75" spans="1:13">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="28" t="e">
+      <c r="B24" s="31" t="e">
         <f>(#REF!-B19)/B19</f>
         <v>#REF!</v>
       </c>
-      <c r="C24" s="28" t="e">
+      <c r="C24" s="31" t="e">
         <f>(#REF!-C19)/C19</f>
         <v>#REF!</v>
       </c>
-      <c r="D24" s="28" t="e">
+      <c r="D24" s="31" t="e">
         <f>(#REF!-D19)/D19</f>
         <v>#REF!</v>
       </c>
-      <c r="E24" s="28" t="e">
+      <c r="E24" s="31" t="e">
         <f>(#REF!-E19)/E19</f>
         <v>#REF!</v>
       </c>
-      <c r="F24" s="28" t="e">
+      <c r="F24" s="31" t="e">
         <f>(#REF!-F19)/F19</f>
         <v>#REF!</v>
       </c>
-      <c r="G24" s="28" t="e">
+      <c r="G24" s="31" t="e">
         <f>(#REF!-G19)/G19</f>
         <v>#REF!</v>
       </c>
-      <c r="H24" s="28" t="e">
+      <c r="H24" s="31" t="e">
         <f>(#REF!-H19)/H19</f>
         <v>#REF!</v>
       </c>
-      <c r="I24" s="28" t="e">
+      <c r="I24" s="31" t="e">
         <f>(#REF!-I19)/I19</f>
         <v>#REF!</v>
       </c>
-      <c r="J24" s="28" t="e">
+      <c r="J24" s="31" t="e">
         <f>(#REF!-J19)/J19</f>
         <v>#REF!</v>
       </c>
-      <c r="K24" s="28" t="e">
+      <c r="K24" s="31" t="e">
         <f>(#REF!-K19)/K19</f>
         <v>#REF!</v>
       </c>
-      <c r="L24" s="28" t="e">
+      <c r="L24" s="31" t="e">
         <f>(#REF!-L19)/L19</f>
         <v>#REF!</v>
       </c>
-      <c r="M24" s="29" t="e">
+      <c r="M24" s="32" t="e">
         <f>(#REF!-M19)/M19</f>
         <v>#REF!</v>
       </c>
@@ -2578,102 +2606,102 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" ht="20.25" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="20.25" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="10">
         <v>42.7</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="10">
         <v>13.1</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="10">
         <v>19.8</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="10">
         <v>5.8</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>59.2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="11">
         <v>37.4</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="11">
         <v>17.2</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="11">
         <v>3.2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>1.4</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:6">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="8">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
+      <c r="B4" s="11">
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>101.9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="11">
         <v>50.5</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="11">
         <v>21.2</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="11">
         <v>23</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="11">
         <v>7.2</v>
       </c>
     </row>
@@ -2703,32 +2731,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" ht="18" spans="1:13">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
@@ -2778,22 +2806,22 @@
       <c r="C3">
         <v>110400</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>0.01</v>
       </c>
       <c r="E3">
         <v>45569</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>42414</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="8">
         <v>0.012</v>
       </c>
       <c r="H3">
         <v>33120</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="7">
         <v>45170</v>
       </c>
       <c r="J3">
@@ -2805,7 +2833,7 @@
       <c r="L3">
         <v>60.33</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="8">
         <v>0.0008</v>
       </c>
     </row>
@@ -2820,4 +2848,134 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2017</v>
+      </c>
+      <c r="D1" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E1" s="2">
+        <v>2019</v>
+      </c>
+      <c r="F1" s="2">
+        <v>2020</v>
+      </c>
+      <c r="G1" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3">
+        <v>4568.9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5323.4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5689.7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6784.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8657.2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>9922.4</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6618.92304388</v>
+      </c>
+      <c r="C3" s="3">
+        <v>7359.418507072</v>
+      </c>
+      <c r="D3" s="3">
+        <v>7865.80194732</v>
+      </c>
+      <c r="E3" s="3">
+        <v>8993.02904376</v>
+      </c>
+      <c r="F3" s="3">
+        <v>9486.3235614</v>
+      </c>
+      <c r="G3" s="3">
+        <v>11029.110401952</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6987.78</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7892.78</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8067.68</v>
+      </c>
+      <c r="E4" s="3">
+        <v>8862.5</v>
+      </c>
+      <c r="F4" s="3">
+        <v>9242.4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10378.98</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <f>288*12</f>
+        <v>3456</v>
+      </c>
+      <c r="C5" s="3">
+        <f>388*12</f>
+        <v>4656</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>